--- a/Csv/Skill/skill.xlsx
+++ b/Csv/Skill/skill.xlsx
@@ -3715,7 +3715,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="G86" sqref="G86"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4422,7 +4422,7 @@
         <v>394</v>
       </c>
       <c r="B86">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C86" t="s">
         <v>395</v>
@@ -4433,7 +4433,7 @@
         <v>387</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>386</v>
@@ -4444,7 +4444,7 @@
         <v>385</v>
       </c>
       <c r="B88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C88" t="s">
         <v>384</v>
@@ -4455,7 +4455,7 @@
         <v>383</v>
       </c>
       <c r="B89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C89" t="s">
         <v>383</v>

--- a/Csv/Skill/skill.xlsx
+++ b/Csv/Skill/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="define_动作配置" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="392">
   <si>
     <t>##class</t>
   </si>
@@ -39,9 +39,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>ActionConfig</t>
-  </si>
-  <si>
     <t>ModelName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,19 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ActionSourceType</t>
-  </si>
-  <si>
-    <t>ActionSourceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SelfModel</t>
-  </si>
-  <si>
-    <t>OtherModel</t>
-  </si>
-  <si>
     <t>ActionName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -108,10 +92,6 @@
     <t>动作来源</t>
   </si>
   <si>
-    <t>ActionSource</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>OtherModelName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,14 +401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>自己模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>施放相对位置(1 自己 , 2 目标)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1461,6 +1433,22 @@
   </si>
   <si>
     <t>临时组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsFromOther</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1835,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1853,12 +1841,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1880,60 +1866,60 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1941,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1966,123 +1952,123 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>390</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2090,10 +2076,10 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2117,167 +2103,167 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2285,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2310,112 +2296,112 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B49" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C49" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B54" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -2423,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2448,46 +2434,46 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C63" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -2495,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2520,35 +2506,35 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C68" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B70" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -2556,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2581,35 +2567,35 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2624,7 +2610,7 @@
   <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2640,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2665,13 +2651,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2679,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -2706,35 +2692,35 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2742,10 +2728,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2769,101 +2755,101 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" t="s">
         <v>164</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -2871,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2898,46 +2884,46 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C26" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -2945,10 +2931,10 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2972,343 +2958,343 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C39" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B40" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B43" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
       </c>
       <c r="C44" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C48" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C50" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C51" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C53" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B56" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C59" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C60" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B62" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B63" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B64" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -3316,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -3343,46 +3329,46 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C69" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B71" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C72" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -3390,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3417,35 +3403,35 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B77" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C77" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B78" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C78" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C79" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -3453,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3480,123 +3466,123 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B83" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C83" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B84" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C84" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B85" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C88" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B89" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C89" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B90" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C90" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B91" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C91" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B92" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C92" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B93" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C93" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3604,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3631,35 +3617,35 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C97" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C98" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C99" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -3667,10 +3653,10 @@
         <v>0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3694,13 +3680,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B103" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C103" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3712,10 +3698,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3727,10 +3713,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -3751,89 +3737,89 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -3854,611 +3840,576 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>160</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B32">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="C32" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39">
         <v>2</v>
       </c>
-      <c r="C38" t="s">
-        <v>198</v>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>207</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
         <v>211</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>213</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>215</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>216</v>
+        <v>278</v>
       </c>
       <c r="B47">
-        <v>4</v>
-      </c>
-      <c r="C47" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>217</v>
+        <v>279</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>280</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>282</v>
+      </c>
+      <c r="B51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52">
         <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B53">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>290</v>
-      </c>
-      <c r="B57">
+      <c r="C60" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>291</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>292</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>293</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
+      <c r="D60" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B61">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>307</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>310</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69" t="s">
-        <v>322</v>
-      </c>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1</v>
+      <c r="A73" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
         <v>324</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
+        <v>325</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
         <v>326</v>
       </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>329</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>331</v>
+        <v>386</v>
       </c>
       <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>388</v>
+      </c>
+      <c r="B81">
         <v>1</v>
       </c>
-      <c r="C80" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>333</v>
-      </c>
-      <c r="B81">
+      <c r="C81" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>379</v>
+      </c>
+      <c r="B82">
         <v>2</v>
       </c>
-      <c r="C81" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C82" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>377</v>
+      </c>
+      <c r="B83">
         <v>3</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84">
         <v>4</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>394</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>387</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>385</v>
-      </c>
-      <c r="B88">
-        <v>2</v>
-      </c>
-      <c r="C88" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>383</v>
-      </c>
-      <c r="B89">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>383</v>
+      <c r="C84" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
